--- a/truth table.xlsx
+++ b/truth table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESCi\Documents\Source\COSE221-01-TermProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF29D65-2C06-489B-824D-E121CFBD185C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453708A0-7DDA-4E02-A969-AC6F97C269F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8208" yWindow="1392" windowWidth="17280" windowHeight="10044" xr2:uid="{E47A5CE5-9A35-48DF-87F3-9F7AF03DF309}"/>
+    <workbookView xWindow="-5808" yWindow="756" windowWidth="17280" windowHeight="10044" xr2:uid="{E47A5CE5-9A35-48DF-87F3-9F7AF03DF309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>current state</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,12 @@
   </si>
   <si>
     <t>.= C(E + A) + C'E'(A + D') + BDE'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign nextState[2] = ((cS[2]&amp;(!in[1]|!in[0])) | (cS[1]&amp;!in[1]&amp;(in[0]|cS[0])) | (in[1]&amp;!in[0]&amp;(cS[1]^cS[0])));
+	assign nextState[1] = ((cS[2]&amp;in[1]&amp;(in[0]|(!cS[1]&amp;!cS[0]&amp;!in[0]))) | (!cS[2]&amp;!cS[1]&amp;!in[1]&amp;(in[0]|cS[0])) | (cS[1]&amp;!in[0]&amp;(cS[0]^!in[1])));
+	assign nextState[0] = ((cS[0]&amp;(in[0]|cS[2])) | (!cS[0]&amp;!in[0]&amp;(cS[2]|!in[1])) | (cS[1]&amp;in[1]&amp;!in[0]));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +372,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,11 +396,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D06CE-2E69-420D-B3CC-32EE5CF91F5A}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -727,23 +732,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -771,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>5</v>
@@ -801,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -813,13 +818,13 @@
         <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -829,7 +834,7 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -841,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -863,21 +868,21 @@
         <v>13</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="24" t="s">
-        <v>19</v>
+      <c r="H6" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>4</v>
@@ -890,7 +895,7 @@
       </c>
       <c r="L6" s="6"/>
       <c r="N6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -908,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
@@ -920,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -933,7 +938,7 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>4</v>
@@ -945,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -967,21 +972,21 @@
         <v>4</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="24" t="s">
-        <v>19</v>
+      <c r="H10" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>4</v>
@@ -1009,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
@@ -1021,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1031,7 +1036,7 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>13</v>
@@ -1066,14 +1071,14 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="24" t="s">
-        <v>19</v>
+      <c r="H14" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>4</v>
@@ -1101,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>13</v>
@@ -1113,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1123,7 +1128,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>13</v>
@@ -1135,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D17" s="13"/>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1154,18 +1159,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="24" t="s">
-        <v>19</v>
+      <c r="H18" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>4</v>
@@ -1178,7 +1183,7 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1193,10 +1198,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>4</v>
@@ -1208,14 +1213,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="13"/>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>13</v>
@@ -1227,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="13"/>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -1246,18 +1251,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="24" t="s">
-        <v>19</v>
+      <c r="H22" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>4</v>
@@ -1270,7 +1275,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>13</v>
@@ -1300,14 +1305,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>13</v>
@@ -1319,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D25" s="13"/>
       <c r="E25" s="2" t="s">
         <v>13</v>
@@ -1338,18 +1343,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="24" t="s">
-        <v>19</v>
+      <c r="H26" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>4</v>
@@ -1361,6 +1366,11 @@
         <v>13</v>
       </c>
       <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="N27" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1372,7 +1382,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M7 L10:XFD10 M11:XFD11 L12:XFD14 M15:XFD15 L16:XFD18 M19:XFD19 M23:XFD23 L24:XFD26 L20:XFD22 H1:K1 A3:C3 A4:D4 A5:E5 I3:K5 I6:K11 L4:L6 O6:XFD6 F4 E3:F3 A1:F2 A6:F26 I2:K2 P3:XFD3 P4:XFD4 O5:XFD5 I15:K15 I12:J12 K13 I14:J14 I19:K26 I16:J16 I18 O7:XFD7 L8:M8 O8:XFD8 L9:M9 O9:XFD9" numberStoredAsText="1"/>
+    <ignoredError sqref="M7 L10:XFD10 M11:XFD11 L12:XFD14 M15:XFD15 L16:XFD18 M19:XFD19 M23:XFD23 L24:XFD26 L20:XFD22 H1:K1 A3:C3 A4:D4 A5:E5 I3:K5 I6:K11 L4:L6 O6:XFD6 F4 E3:F3 A1:F2 A6:F26 I2:K2 P3:XFD3 P4:XFD4 O5:XFD5 I15:K15 I12:J12 K13 I14:J14 I20:K26 I16:J16 I18 O7:XFD7 L8:M8 O8:XFD8 L9:M9 O9:XFD9 J19:K19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>